--- a/grupos/2ARHM - Estadisticos 2020.xlsx
+++ b/grupos/2ARHM - Estadisticos 2020.xlsx
@@ -3559,6 +3559,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4375,7 +4376,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5071,6 +5073,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/2ARHM - Estadisticos 2020.xlsx
+++ b/grupos/2ARHM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="175">
   <si>
     <t>Materia</t>
   </si>
@@ -227,18 +227,45 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
     <t>ARROYO</t>
   </si>
   <si>
     <t>BAUTISTA</t>
   </si>
   <si>
+    <t>BASILIO</t>
+  </si>
+  <si>
+    <t>BUSTOS</t>
+  </si>
+  <si>
     <t>CANSECO</t>
   </si>
   <si>
     <t>CARRERA</t>
   </si>
   <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DEMUNER</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GASCA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>GUERRA</t>
   </si>
   <si>
@@ -248,6 +275,15 @@
     <t>HUERTA</t>
   </si>
   <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>LOBATO</t>
+  </si>
+  <si>
+    <t>MATA</t>
+  </si>
+  <si>
     <t>MENDEZ</t>
   </si>
   <si>
@@ -260,12 +296,18 @@
     <t>OJEDA</t>
   </si>
   <si>
+    <t>PARRA</t>
+  </si>
+  <si>
     <t>PANZO</t>
   </si>
   <si>
     <t>QUIRIZ</t>
   </si>
   <si>
+    <t>REYES</t>
+  </si>
+  <si>
     <t>RIVERA</t>
   </si>
   <si>
@@ -275,6 +317,9 @@
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>SANDRIA</t>
+  </si>
+  <si>
     <t>TORRES</t>
   </si>
   <si>
@@ -284,21 +329,48 @@
     <t>XOTLANIHUA</t>
   </si>
   <si>
+    <t>XOCUA</t>
+  </si>
+  <si>
     <t>ZUÑIGA</t>
   </si>
   <si>
+    <t>VALLEJO</t>
+  </si>
+  <si>
     <t>NOMTALVO</t>
   </si>
   <si>
     <t>DIAZ</t>
   </si>
   <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
     <t>LEAL</t>
   </si>
   <si>
     <t>TINOCO</t>
   </si>
   <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>ALONSO</t>
+  </si>
+  <si>
     <t>JERONIMO</t>
   </si>
   <si>
@@ -308,12 +380,15 @@
     <t>VENTURA</t>
   </si>
   <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>MIXCOA</t>
+  </si>
+  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
     <t>ALAMILLO</t>
   </si>
   <si>
@@ -323,12 +398,18 @@
     <t>RAMOS</t>
   </si>
   <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
     <t>AGUILAR</t>
   </si>
   <si>
     <t>ROMERO</t>
   </si>
   <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
     <t>MELO</t>
   </si>
   <si>
@@ -341,21 +422,54 @@
     <t>YOPIHUA</t>
   </si>
   <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
     <t>ROBLES</t>
   </si>
   <si>
+    <t>PATRICIA</t>
+  </si>
+  <si>
+    <t>LUIS YAEL</t>
+  </si>
+  <si>
     <t>VICTOR HUGO</t>
   </si>
   <si>
     <t>DINA BERENICE</t>
   </si>
   <si>
+    <t>VANESA</t>
+  </si>
+  <si>
+    <t>SARAHI</t>
+  </si>
+  <si>
     <t>ANGELA</t>
   </si>
   <si>
     <t>ANGELES NAHOMI</t>
   </si>
   <si>
+    <t>ADRIANA ARELY</t>
+  </si>
+  <si>
+    <t>AISHA NAOMI</t>
+  </si>
+  <si>
+    <t>ARANTXA</t>
+  </si>
+  <si>
+    <t>MARIA YAZMIN</t>
+  </si>
+  <si>
+    <t>JAEL SAMAI</t>
+  </si>
+  <si>
+    <t>LIZBET</t>
+  </si>
+  <si>
     <t>XIMENA</t>
   </si>
   <si>
@@ -365,6 +479,15 @@
     <t>BLANCA EULARIA</t>
   </si>
   <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
+    <t>DANIELA RUBI</t>
+  </si>
+  <si>
+    <t>CRISTIAN ARTURO</t>
+  </si>
+  <si>
     <t>VANNIA GISELLE</t>
   </si>
   <si>
@@ -377,12 +500,18 @@
     <t>PAOLA GONETSY</t>
   </si>
   <si>
+    <t>SUEMI</t>
+  </si>
+  <si>
     <t>IDETH JOSELYN</t>
   </si>
   <si>
     <t>MONICA</t>
   </si>
   <si>
+    <t>ESTHER ARISBETH</t>
+  </si>
+  <si>
     <t>JAROMI YAJAIRA</t>
   </si>
   <si>
@@ -392,6 +521,12 @@
     <t>BERENICE</t>
   </si>
   <si>
+    <t>IRIS VIANNEY</t>
+  </si>
+  <si>
+    <t>MONSERRATH YARETZY</t>
+  </si>
+  <si>
     <t>DIEGO</t>
   </si>
   <si>
@@ -404,145 +539,10 @@
     <t>PAOLA JAZMIN</t>
   </si>
   <si>
+    <t>AYARI</t>
+  </si>
+  <si>
     <t>DANIELA</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>BASILIO</t>
-  </si>
-  <si>
-    <t>BUSTOS</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DEMUNER</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GASCA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>LORENZO</t>
-  </si>
-  <si>
-    <t>LOBATO</t>
-  </si>
-  <si>
-    <t>MATA</t>
-  </si>
-  <si>
-    <t>PARRA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>SANDRIA</t>
-  </si>
-  <si>
-    <t>XOCUA</t>
-  </si>
-  <si>
-    <t>VALLEJO</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>ALONSO</t>
-  </si>
-  <si>
-    <t>DOMINGUEZ</t>
-  </si>
-  <si>
-    <t>MIXCOA</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>PATRICIA</t>
-  </si>
-  <si>
-    <t>LUIS YAEL</t>
-  </si>
-  <si>
-    <t>VANESA</t>
-  </si>
-  <si>
-    <t>SARAHI</t>
-  </si>
-  <si>
-    <t>ADRIANA ARELY</t>
-  </si>
-  <si>
-    <t>AISHA NAOMI</t>
-  </si>
-  <si>
-    <t>ARANTXA</t>
-  </si>
-  <si>
-    <t>MARIA YAZMIN</t>
-  </si>
-  <si>
-    <t>JAEL SAMAI</t>
-  </si>
-  <si>
-    <t>LIZBET</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>DANIELA RUBI</t>
-  </si>
-  <si>
-    <t>CRISTIAN ARTURO</t>
-  </si>
-  <si>
-    <t>SUEMI</t>
-  </si>
-  <si>
-    <t>ESTHER ARISBETH</t>
-  </si>
-  <si>
-    <t>IRIS VIANNEY</t>
-  </si>
-  <si>
-    <t>MONSERRATH YARETZY</t>
-  </si>
-  <si>
-    <t>AYARI</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1023,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -1035,7 +1035,7 @@
         <v>-1</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <v>-1</v>
@@ -1082,7 +1082,7 @@
         <v>8</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -1094,7 +1094,7 @@
         <v>-1</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M5">
         <v>-1</v>
@@ -1141,7 +1141,7 @@
         <v>-1</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -1153,7 +1153,7 @@
         <v>-1</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M6">
         <v>-1</v>
@@ -1200,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -1212,7 +1212,7 @@
         <v>-1</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M7">
         <v>-1</v>
@@ -1253,13 +1253,13 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -1318,7 +1318,7 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -1330,7 +1330,7 @@
         <v>-1</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M9">
         <v>-1</v>
@@ -1371,13 +1371,13 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>7</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -1389,7 +1389,7 @@
         <v>-1</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M10">
         <v>-1</v>
@@ -1430,13 +1430,13 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>6</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -1448,7 +1448,7 @@
         <v>-1</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>-1</v>
@@ -1495,7 +1495,7 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -1507,7 +1507,7 @@
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M12">
         <v>-1</v>
@@ -1554,7 +1554,7 @@
         <v>7</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1566,7 +1566,7 @@
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M13">
         <v>-1</v>
@@ -1613,7 +1613,7 @@
         <v>9</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1625,7 +1625,7 @@
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M14">
         <v>-1</v>
@@ -1672,7 +1672,7 @@
         <v>8</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1684,7 +1684,7 @@
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M15">
         <v>-1</v>
@@ -1731,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1743,7 +1743,7 @@
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M16">
         <v>-1</v>
@@ -1790,7 +1790,7 @@
         <v>8</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1802,7 +1802,7 @@
         <v>-1</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M17">
         <v>-1</v>
@@ -1849,7 +1849,7 @@
         <v>-1</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -1908,7 +1908,7 @@
         <v>-1</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1961,13 +1961,13 @@
         <v>5</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>-1</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -2026,7 +2026,7 @@
         <v>10</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -2038,7 +2038,7 @@
         <v>-1</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M21">
         <v>-1</v>
@@ -2085,7 +2085,7 @@
         <v>9</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -2097,7 +2097,7 @@
         <v>-1</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M22">
         <v>-1</v>
@@ -2144,7 +2144,7 @@
         <v>6</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -2156,7 +2156,7 @@
         <v>-1</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
         <v>-1</v>
@@ -2197,13 +2197,13 @@
         <v>9</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <v>6</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -2262,7 +2262,7 @@
         <v>6</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -2274,7 +2274,7 @@
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>-1</v>
@@ -2321,7 +2321,7 @@
         <v>8</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -2380,7 +2380,7 @@
         <v>6</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -2439,7 +2439,7 @@
         <v>6</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I28">
         <v>-1</v>
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <v>-1</v>
@@ -2510,7 +2510,7 @@
         <v>-1</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M29">
         <v>-1</v>
@@ -2557,7 +2557,7 @@
         <v>6</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -2616,7 +2616,7 @@
         <v>8</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -2628,7 +2628,7 @@
         <v>-1</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M31">
         <v>-1</v>
@@ -2669,13 +2669,13 @@
         <v>6</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <v>6</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -2687,7 +2687,7 @@
         <v>-1</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M32">
         <v>-1</v>
@@ -2734,7 +2734,7 @@
         <v>7</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I33">
         <v>-1</v>
@@ -2746,7 +2746,7 @@
         <v>-1</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M33">
         <v>-1</v>
@@ -2793,7 +2793,7 @@
         <v>7</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I34">
         <v>-1</v>
@@ -2805,7 +2805,7 @@
         <v>-1</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M34">
         <v>-1</v>
@@ -2846,13 +2846,13 @@
         <v>9</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G35">
         <v>6</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -2864,7 +2864,7 @@
         <v>-1</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M35">
         <v>-1</v>
@@ -2911,7 +2911,7 @@
         <v>6</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I36">
         <v>-1</v>
@@ -2923,7 +2923,7 @@
         <v>-1</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M36">
         <v>-1</v>
@@ -2970,7 +2970,7 @@
         <v>8</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I37">
         <v>-1</v>
@@ -3029,7 +3029,7 @@
         <v>6</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I38">
         <v>-1</v>
@@ -3082,13 +3082,13 @@
         <v>6</v>
       </c>
       <c r="F39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G39">
         <v>7</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I39">
         <v>-1</v>
@@ -3100,7 +3100,7 @@
         <v>-1</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M39">
         <v>-1</v>
@@ -3147,7 +3147,7 @@
         <v>6</v>
       </c>
       <c r="H40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I40">
         <v>-1</v>
@@ -3159,7 +3159,7 @@
         <v>-1</v>
       </c>
       <c r="L40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M40">
         <v>-1</v>
@@ -3206,7 +3206,7 @@
         <v>-1</v>
       </c>
       <c r="H41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I41">
         <v>-1</v>
@@ -3265,7 +3265,7 @@
         <v>6</v>
       </c>
       <c r="H42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I42">
         <v>-1</v>
@@ -3365,25 +3365,25 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>56.41</v>
+        <v>66.67</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>10.26</v>
       </c>
       <c r="H2">
-        <v>8.6</v>
+        <v>7.9</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>43.59</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3553,7 +3553,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3585,76 +3585,76 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920157</v>
+        <v>20330051920368</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920157</v>
+        <v>20330051920368</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920158</v>
+        <v>20330051920368</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920158</v>
+        <v>20330051920368</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -3665,76 +3665,76 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920161</v>
+        <v>20330051920156</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920162</v>
+        <v>20330051920156</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920162</v>
+        <v>20330051920156</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920166</v>
+        <v>20330051920156</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -3745,156 +3745,156 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920166</v>
+        <v>20330051920157</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920166</v>
+        <v>20330051920157</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920166</v>
+        <v>20330051920157</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920168</v>
+        <v>20330051920157</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920168</v>
+        <v>20330051920158</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920168</v>
+        <v>20330051920158</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920168</v>
+        <v>20330051920158</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920169</v>
+        <v>20330051920158</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -3905,16 +3905,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920169</v>
+        <v>20330051920158</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -3925,56 +3925,56 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920169</v>
+        <v>20330051920369</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920169</v>
+        <v>20330051920369</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920173</v>
+        <v>20330051920369</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -3985,36 +3985,36 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920173</v>
+        <v>20330051920369</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920174</v>
+        <v>20330051920160</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -4025,96 +4025,96 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920175</v>
+        <v>20330051920160</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920176</v>
+        <v>20330051920160</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920177</v>
+        <v>20330051920160</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920178</v>
+        <v>20330051920161</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920180</v>
+        <v>20330051920161</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -4125,156 +4125,156 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920373</v>
+        <v>20330051920161</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920373</v>
+        <v>20330051920161</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920254</v>
+        <v>20330051920162</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920182</v>
+        <v>20330051920162</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920183</v>
+        <v>20330051920162</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920183</v>
+        <v>20330051920162</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920184</v>
+        <v>20330051920163</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920185</v>
+        <v>20330051920163</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -4285,82 +4285,2682 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920185</v>
+        <v>20330051920163</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920185</v>
+        <v>20330051920163</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920185</v>
+        <v>20330051920164</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
+        <v>20330051920164</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>20330051920164</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>20330051920164</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>20330051920370</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>20330051920370</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>20330051920370</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>20330051920370</v>
+      </c>
+      <c r="B46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>20330051920372</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>20330051920372</v>
+      </c>
+      <c r="B48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>20330051920372</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>20330051920372</v>
+      </c>
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>20330051920165</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>20330051920165</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>20330051920165</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>20330051920165</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>20330051920167</v>
+      </c>
+      <c r="B55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>20330051920167</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>20330051920167</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" t="s">
+        <v>149</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>20330051920167</v>
+      </c>
+      <c r="B58" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>20330051920166</v>
+      </c>
+      <c r="B59" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>20330051920166</v>
+      </c>
+      <c r="B60" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" t="s">
+        <v>150</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>20330051920166</v>
+      </c>
+      <c r="B61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" t="s">
+        <v>150</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>20330051920166</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>20330051920166</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" t="s">
+        <v>150</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>20330051920168</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>20330051920168</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>20330051920168</v>
+      </c>
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>20330051920168</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>20330051920168</v>
+      </c>
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>20330051920169</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>20330051920169</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>20330051920169</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>20330051920169</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>20330051920169</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>20330051920371</v>
+      </c>
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" t="s">
+        <v>153</v>
+      </c>
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>20330051920371</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" t="s">
+        <v>153</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>20330051920371</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76" t="s">
+        <v>153</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>20330051920371</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>20330051920171</v>
+      </c>
+      <c r="B78" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>20330051920171</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>20330051920171</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" t="s">
+        <v>154</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>20330051920171</v>
+      </c>
+      <c r="B81" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" t="s">
+        <v>154</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>20330051920172</v>
+      </c>
+      <c r="B82" t="s">
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" t="s">
+        <v>155</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>20330051920172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" t="s">
+        <v>155</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>20330051920172</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D84" t="s">
+        <v>155</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>20330051920172</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" t="s">
+        <v>155</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>20330051920173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" t="s">
+        <v>156</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>20330051920173</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>122</v>
+      </c>
+      <c r="D87" t="s">
+        <v>156</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>20330051920173</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" t="s">
+        <v>122</v>
+      </c>
+      <c r="D88" t="s">
+        <v>156</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>20330051920173</v>
+      </c>
+      <c r="B89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" t="s">
+        <v>156</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>20330051920173</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>122</v>
+      </c>
+      <c r="D90" t="s">
+        <v>156</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>20330051920174</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" t="s">
+        <v>157</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>20330051920174</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" t="s">
+        <v>157</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>20330051920174</v>
+      </c>
+      <c r="B93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>112</v>
+      </c>
+      <c r="D93" t="s">
+        <v>157</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>20330051920174</v>
+      </c>
+      <c r="B94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" t="s">
+        <v>157</v>
+      </c>
+      <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>20330051920175</v>
+      </c>
+      <c r="B95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" t="s">
+        <v>158</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>20330051920175</v>
+      </c>
+      <c r="B96" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" t="s">
+        <v>158</v>
+      </c>
+      <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>20330051920175</v>
+      </c>
+      <c r="B97" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" t="s">
+        <v>158</v>
+      </c>
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>20330051920175</v>
+      </c>
+      <c r="B98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" t="s">
+        <v>123</v>
+      </c>
+      <c r="D98" t="s">
+        <v>158</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>20330051920175</v>
+      </c>
+      <c r="B99" t="s">
+        <v>90</v>
+      </c>
+      <c r="C99" t="s">
+        <v>123</v>
+      </c>
+      <c r="D99" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>20330051920176</v>
+      </c>
+      <c r="B100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" t="s">
+        <v>112</v>
+      </c>
+      <c r="D100" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>20330051920176</v>
+      </c>
+      <c r="B101" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" t="s">
+        <v>159</v>
+      </c>
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>20330051920176</v>
+      </c>
+      <c r="B102" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" t="s">
+        <v>112</v>
+      </c>
+      <c r="D102" t="s">
+        <v>159</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>20330051920176</v>
+      </c>
+      <c r="B103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D103" t="s">
+        <v>159</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>20330051920176</v>
+      </c>
+      <c r="B104" t="s">
+        <v>91</v>
+      </c>
+      <c r="C104" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" t="s">
+        <v>159</v>
+      </c>
+      <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>20330051920306</v>
+      </c>
+      <c r="B105" t="s">
+        <v>92</v>
+      </c>
+      <c r="C105" t="s">
+        <v>79</v>
+      </c>
+      <c r="D105" t="s">
+        <v>160</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>20330051920306</v>
+      </c>
+      <c r="B106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" t="s">
+        <v>79</v>
+      </c>
+      <c r="D106" t="s">
+        <v>160</v>
+      </c>
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>20330051920306</v>
+      </c>
+      <c r="B107" t="s">
+        <v>92</v>
+      </c>
+      <c r="C107" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" t="s">
+        <v>160</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>20330051920306</v>
+      </c>
+      <c r="B108" t="s">
+        <v>92</v>
+      </c>
+      <c r="C108" t="s">
+        <v>79</v>
+      </c>
+      <c r="D108" t="s">
+        <v>160</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>20330051920177</v>
+      </c>
+      <c r="B109" t="s">
+        <v>93</v>
+      </c>
+      <c r="C109" t="s">
+        <v>124</v>
+      </c>
+      <c r="D109" t="s">
+        <v>161</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>20330051920177</v>
+      </c>
+      <c r="B110" t="s">
+        <v>93</v>
+      </c>
+      <c r="C110" t="s">
+        <v>124</v>
+      </c>
+      <c r="D110" t="s">
+        <v>161</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>20330051920177</v>
+      </c>
+      <c r="B111" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" t="s">
+        <v>124</v>
+      </c>
+      <c r="D111" t="s">
+        <v>161</v>
+      </c>
+      <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>20330051920177</v>
+      </c>
+      <c r="B112" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" t="s">
+        <v>124</v>
+      </c>
+      <c r="D112" t="s">
+        <v>161</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>20330051920177</v>
+      </c>
+      <c r="B113" t="s">
+        <v>93</v>
+      </c>
+      <c r="C113" t="s">
+        <v>124</v>
+      </c>
+      <c r="D113" t="s">
+        <v>161</v>
+      </c>
+      <c r="E113" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>20330051920178</v>
+      </c>
+      <c r="B114" t="s">
+        <v>94</v>
+      </c>
+      <c r="C114" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114" t="s">
+        <v>162</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>20330051920178</v>
+      </c>
+      <c r="B115" t="s">
+        <v>94</v>
+      </c>
+      <c r="C115" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" t="s">
+        <v>162</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>20330051920178</v>
+      </c>
+      <c r="B116" t="s">
+        <v>94</v>
+      </c>
+      <c r="C116" t="s">
+        <v>125</v>
+      </c>
+      <c r="D116" t="s">
+        <v>162</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>20330051920178</v>
+      </c>
+      <c r="B117" t="s">
+        <v>94</v>
+      </c>
+      <c r="C117" t="s">
+        <v>125</v>
+      </c>
+      <c r="D117" t="s">
+        <v>162</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>20330051920178</v>
+      </c>
+      <c r="B118" t="s">
+        <v>94</v>
+      </c>
+      <c r="C118" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" t="s">
+        <v>162</v>
+      </c>
+      <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>20330051920179</v>
+      </c>
+      <c r="B119" t="s">
+        <v>95</v>
+      </c>
+      <c r="C119" t="s">
+        <v>126</v>
+      </c>
+      <c r="D119" t="s">
+        <v>163</v>
+      </c>
+      <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>20330051920179</v>
+      </c>
+      <c r="B120" t="s">
+        <v>95</v>
+      </c>
+      <c r="C120" t="s">
+        <v>126</v>
+      </c>
+      <c r="D120" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>20330051920179</v>
+      </c>
+      <c r="B121" t="s">
+        <v>95</v>
+      </c>
+      <c r="C121" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" t="s">
+        <v>163</v>
+      </c>
+      <c r="E121" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>20330051920179</v>
+      </c>
+      <c r="B122" t="s">
+        <v>95</v>
+      </c>
+      <c r="C122" t="s">
+        <v>126</v>
+      </c>
+      <c r="D122" t="s">
+        <v>163</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>20330051920180</v>
+      </c>
+      <c r="B123" t="s">
+        <v>96</v>
+      </c>
+      <c r="C123" t="s">
+        <v>127</v>
+      </c>
+      <c r="D123" t="s">
+        <v>164</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>20330051920180</v>
+      </c>
+      <c r="B124" t="s">
+        <v>96</v>
+      </c>
+      <c r="C124" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124" t="s">
+        <v>164</v>
+      </c>
+      <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>20330051920180</v>
+      </c>
+      <c r="B125" t="s">
+        <v>96</v>
+      </c>
+      <c r="C125" t="s">
+        <v>127</v>
+      </c>
+      <c r="D125" t="s">
+        <v>164</v>
+      </c>
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+      <c r="F125" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>20330051920180</v>
+      </c>
+      <c r="B126" t="s">
+        <v>96</v>
+      </c>
+      <c r="C126" t="s">
+        <v>127</v>
+      </c>
+      <c r="D126" t="s">
+        <v>164</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>20330051920373</v>
+      </c>
+      <c r="B127" t="s">
+        <v>97</v>
+      </c>
+      <c r="C127" t="s">
+        <v>72</v>
+      </c>
+      <c r="D127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>20330051920373</v>
+      </c>
+      <c r="B128" t="s">
+        <v>97</v>
+      </c>
+      <c r="C128" t="s">
+        <v>72</v>
+      </c>
+      <c r="D128" t="s">
+        <v>165</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>20330051920373</v>
+      </c>
+      <c r="B129" t="s">
+        <v>97</v>
+      </c>
+      <c r="C129" t="s">
+        <v>72</v>
+      </c>
+      <c r="D129" t="s">
+        <v>165</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>20330051920373</v>
+      </c>
+      <c r="B130" t="s">
+        <v>97</v>
+      </c>
+      <c r="C130" t="s">
+        <v>72</v>
+      </c>
+      <c r="D130" t="s">
+        <v>165</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>20330051920254</v>
+      </c>
+      <c r="B131" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" t="s">
+        <v>128</v>
+      </c>
+      <c r="D131" t="s">
+        <v>166</v>
+      </c>
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>20330051920254</v>
+      </c>
+      <c r="B132" t="s">
+        <v>98</v>
+      </c>
+      <c r="C132" t="s">
+        <v>128</v>
+      </c>
+      <c r="D132" t="s">
+        <v>166</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>20330051920254</v>
+      </c>
+      <c r="B133" t="s">
+        <v>98</v>
+      </c>
+      <c r="C133" t="s">
+        <v>128</v>
+      </c>
+      <c r="D133" t="s">
+        <v>166</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>20330051920254</v>
+      </c>
+      <c r="B134" t="s">
+        <v>98</v>
+      </c>
+      <c r="C134" t="s">
+        <v>128</v>
+      </c>
+      <c r="D134" t="s">
+        <v>166</v>
+      </c>
+      <c r="E134" t="s">
+        <v>5</v>
+      </c>
+      <c r="F134" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>20330051920181</v>
+      </c>
+      <c r="B135" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" t="s">
+        <v>122</v>
+      </c>
+      <c r="D135" t="s">
+        <v>167</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>20330051920181</v>
+      </c>
+      <c r="B136" t="s">
+        <v>98</v>
+      </c>
+      <c r="C136" t="s">
+        <v>122</v>
+      </c>
+      <c r="D136" t="s">
+        <v>167</v>
+      </c>
+      <c r="E136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F136" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>20330051920181</v>
+      </c>
+      <c r="B137" t="s">
+        <v>98</v>
+      </c>
+      <c r="C137" t="s">
+        <v>122</v>
+      </c>
+      <c r="D137" t="s">
+        <v>167</v>
+      </c>
+      <c r="E137" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>20330051920181</v>
+      </c>
+      <c r="B138" t="s">
+        <v>98</v>
+      </c>
+      <c r="C138" t="s">
+        <v>122</v>
+      </c>
+      <c r="D138" t="s">
+        <v>167</v>
+      </c>
+      <c r="E138" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>20330051920393</v>
+      </c>
+      <c r="B139" t="s">
+        <v>99</v>
+      </c>
+      <c r="C139" t="s">
+        <v>129</v>
+      </c>
+      <c r="D139" t="s">
+        <v>168</v>
+      </c>
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>20330051920393</v>
+      </c>
+      <c r="B140" t="s">
+        <v>99</v>
+      </c>
+      <c r="C140" t="s">
+        <v>129</v>
+      </c>
+      <c r="D140" t="s">
+        <v>168</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>20330051920393</v>
+      </c>
+      <c r="B141" t="s">
+        <v>99</v>
+      </c>
+      <c r="C141" t="s">
+        <v>129</v>
+      </c>
+      <c r="D141" t="s">
+        <v>168</v>
+      </c>
+      <c r="E141" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>20330051920393</v>
+      </c>
+      <c r="B142" t="s">
+        <v>99</v>
+      </c>
+      <c r="C142" t="s">
+        <v>129</v>
+      </c>
+      <c r="D142" t="s">
+        <v>168</v>
+      </c>
+      <c r="E142" t="s">
+        <v>7</v>
+      </c>
+      <c r="F142" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>20330051920182</v>
+      </c>
+      <c r="B143" t="s">
+        <v>100</v>
+      </c>
+      <c r="C143" t="s">
+        <v>130</v>
+      </c>
+      <c r="D143" t="s">
+        <v>169</v>
+      </c>
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>20330051920182</v>
+      </c>
+      <c r="B144" t="s">
+        <v>100</v>
+      </c>
+      <c r="C144" t="s">
+        <v>130</v>
+      </c>
+      <c r="D144" t="s">
+        <v>169</v>
+      </c>
+      <c r="E144" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>20330051920182</v>
+      </c>
+      <c r="B145" t="s">
+        <v>100</v>
+      </c>
+      <c r="C145" t="s">
+        <v>130</v>
+      </c>
+      <c r="D145" t="s">
+        <v>169</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>20330051920182</v>
+      </c>
+      <c r="B146" t="s">
+        <v>100</v>
+      </c>
+      <c r="C146" t="s">
+        <v>130</v>
+      </c>
+      <c r="D146" t="s">
+        <v>169</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>20330051920182</v>
+      </c>
+      <c r="B147" t="s">
+        <v>100</v>
+      </c>
+      <c r="C147" t="s">
+        <v>130</v>
+      </c>
+      <c r="D147" t="s">
+        <v>169</v>
+      </c>
+      <c r="E147" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>20330051920183</v>
+      </c>
+      <c r="B148" t="s">
+        <v>101</v>
+      </c>
+      <c r="C148" t="s">
+        <v>131</v>
+      </c>
+      <c r="D148" t="s">
+        <v>170</v>
+      </c>
+      <c r="E148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F148" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>20330051920183</v>
+      </c>
+      <c r="B149" t="s">
+        <v>101</v>
+      </c>
+      <c r="C149" t="s">
+        <v>131</v>
+      </c>
+      <c r="D149" t="s">
+        <v>170</v>
+      </c>
+      <c r="E149" t="s">
+        <v>5</v>
+      </c>
+      <c r="F149" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>20330051920183</v>
+      </c>
+      <c r="B150" t="s">
+        <v>101</v>
+      </c>
+      <c r="C150" t="s">
+        <v>131</v>
+      </c>
+      <c r="D150" t="s">
+        <v>170</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>20330051920183</v>
+      </c>
+      <c r="B151" t="s">
+        <v>101</v>
+      </c>
+      <c r="C151" t="s">
+        <v>131</v>
+      </c>
+      <c r="D151" t="s">
+        <v>170</v>
+      </c>
+      <c r="E151" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>20330051920183</v>
+      </c>
+      <c r="B152" t="s">
+        <v>101</v>
+      </c>
+      <c r="C152" t="s">
+        <v>131</v>
+      </c>
+      <c r="D152" t="s">
+        <v>170</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>20330051920184</v>
+      </c>
+      <c r="B153" t="s">
+        <v>101</v>
+      </c>
+      <c r="C153" t="s">
+        <v>132</v>
+      </c>
+      <c r="D153" t="s">
+        <v>171</v>
+      </c>
+      <c r="E153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F153" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>20330051920184</v>
+      </c>
+      <c r="B154" t="s">
+        <v>101</v>
+      </c>
+      <c r="C154" t="s">
+        <v>132</v>
+      </c>
+      <c r="D154" t="s">
+        <v>171</v>
+      </c>
+      <c r="E154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>20330051920184</v>
+      </c>
+      <c r="B155" t="s">
+        <v>101</v>
+      </c>
+      <c r="C155" t="s">
+        <v>132</v>
+      </c>
+      <c r="D155" t="s">
+        <v>171</v>
+      </c>
+      <c r="E155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>20330051920184</v>
+      </c>
+      <c r="B156" t="s">
+        <v>101</v>
+      </c>
+      <c r="C156" t="s">
+        <v>132</v>
+      </c>
+      <c r="D156" t="s">
+        <v>171</v>
+      </c>
+      <c r="E156" t="s">
+        <v>5</v>
+      </c>
+      <c r="F156" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>20330051920185</v>
+      </c>
+      <c r="B157" t="s">
+        <v>102</v>
+      </c>
+      <c r="C157" t="s">
+        <v>133</v>
+      </c>
+      <c r="D157" t="s">
+        <v>172</v>
+      </c>
+      <c r="E157" t="s">
+        <v>7</v>
+      </c>
+      <c r="F157" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>20330051920185</v>
+      </c>
+      <c r="B158" t="s">
+        <v>102</v>
+      </c>
+      <c r="C158" t="s">
+        <v>133</v>
+      </c>
+      <c r="D158" t="s">
+        <v>172</v>
+      </c>
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>20330051920185</v>
+      </c>
+      <c r="B159" t="s">
+        <v>102</v>
+      </c>
+      <c r="C159" t="s">
+        <v>133</v>
+      </c>
+      <c r="D159" t="s">
+        <v>172</v>
+      </c>
+      <c r="E159" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>20330051920185</v>
+      </c>
+      <c r="B160" t="s">
+        <v>102</v>
+      </c>
+      <c r="C160" t="s">
+        <v>133</v>
+      </c>
+      <c r="D160" t="s">
+        <v>172</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>20330051920185</v>
+      </c>
+      <c r="B161" t="s">
+        <v>102</v>
+      </c>
+      <c r="C161" t="s">
+        <v>133</v>
+      </c>
+      <c r="D161" t="s">
+        <v>172</v>
+      </c>
+      <c r="E161" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>20330051920186</v>
+      </c>
+      <c r="B162" t="s">
+        <v>103</v>
+      </c>
+      <c r="C162" t="s">
+        <v>134</v>
+      </c>
+      <c r="D162" t="s">
+        <v>173</v>
+      </c>
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>20330051920186</v>
+      </c>
+      <c r="B163" t="s">
+        <v>103</v>
+      </c>
+      <c r="C163" t="s">
+        <v>134</v>
+      </c>
+      <c r="D163" t="s">
+        <v>173</v>
+      </c>
+      <c r="E163" t="s">
+        <v>7</v>
+      </c>
+      <c r="F163" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>20330051920186</v>
+      </c>
+      <c r="B164" t="s">
+        <v>103</v>
+      </c>
+      <c r="C164" t="s">
+        <v>134</v>
+      </c>
+      <c r="D164" t="s">
+        <v>173</v>
+      </c>
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>20330051920186</v>
+      </c>
+      <c r="B165" t="s">
+        <v>103</v>
+      </c>
+      <c r="C165" t="s">
+        <v>134</v>
+      </c>
+      <c r="D165" t="s">
+        <v>173</v>
+      </c>
+      <c r="E165" t="s">
+        <v>5</v>
+      </c>
+      <c r="F165" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
         <v>20330051920388</v>
       </c>
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="B166" t="s">
+        <v>104</v>
+      </c>
+      <c r="C166" t="s">
+        <v>135</v>
+      </c>
+      <c r="D166" t="s">
+        <v>174</v>
+      </c>
+      <c r="E166" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>20330051920388</v>
+      </c>
+      <c r="B167" t="s">
+        <v>104</v>
+      </c>
+      <c r="C167" t="s">
+        <v>135</v>
+      </c>
+      <c r="D167" t="s">
+        <v>174</v>
+      </c>
+      <c r="E167" t="s">
         <v>8</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F167" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>20330051920388</v>
+      </c>
+      <c r="B168" t="s">
+        <v>104</v>
+      </c>
+      <c r="C168" t="s">
+        <v>135</v>
+      </c>
+      <c r="D168" t="s">
+        <v>174</v>
+      </c>
+      <c r="E168" t="s">
+        <v>5</v>
+      </c>
+      <c r="F168" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>20330051920388</v>
+      </c>
+      <c r="B169" t="s">
+        <v>104</v>
+      </c>
+      <c r="C169" t="s">
+        <v>135</v>
+      </c>
+      <c r="D169" t="s">
+        <v>174</v>
+      </c>
+      <c r="E169" t="s">
+        <v>7</v>
+      </c>
+      <c r="F169" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>20330051920388</v>
+      </c>
+      <c r="B170" t="s">
+        <v>104</v>
+      </c>
+      <c r="C170" t="s">
+        <v>135</v>
+      </c>
+      <c r="D170" t="s">
+        <v>174</v>
+      </c>
+      <c r="E170" t="s">
+        <v>6</v>
+      </c>
+      <c r="F170" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4402,13 +7002,13 @@
         <v>20330051920166</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -4416,16 +7016,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920168</v>
+        <v>20330051920169</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -4433,16 +7033,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920169</v>
+        <v>20330051920185</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -4450,19 +7050,19 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920185</v>
+        <v>20330051920168</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4470,13 +7070,13 @@
         <v>20330051920157</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4484,16 +7084,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920158</v>
+        <v>20330051920183</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4501,84 +7101,84 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920162</v>
+        <v>20330051920158</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920173</v>
+        <v>20330051920162</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920373</v>
+        <v>20330051920173</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920183</v>
+        <v>20330051920174</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920161</v>
+        <v>20330051920175</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4586,16 +7186,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920174</v>
+        <v>20330051920176</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4603,16 +7203,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920175</v>
+        <v>20330051920177</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4620,16 +7220,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920176</v>
+        <v>20330051920178</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4637,16 +7237,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920177</v>
+        <v>20330051920180</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4654,16 +7254,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920178</v>
+        <v>20330051920373</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4671,16 +7271,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920180</v>
+        <v>20330051920182</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4688,16 +7288,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920254</v>
+        <v>20330051920388</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4705,67 +7305,67 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920182</v>
+        <v>20330051920368</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920184</v>
+        <v>20330051920156</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920388</v>
+        <v>20330051920369</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920368</v>
+        <v>20330051920160</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4773,16 +7373,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920156</v>
+        <v>20330051920161</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -4790,16 +7390,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920369</v>
+        <v>20330051920163</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4807,16 +7407,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920160</v>
+        <v>20330051920164</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4824,16 +7424,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920163</v>
+        <v>20330051920370</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4841,16 +7441,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920164</v>
+        <v>20330051920372</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4858,16 +7458,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920370</v>
+        <v>20330051920165</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
         <v>148</v>
-      </c>
-      <c r="D29" t="s">
-        <v>163</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4875,16 +7475,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920372</v>
+        <v>20330051920167</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
         <v>149</v>
-      </c>
-      <c r="D30" t="s">
-        <v>164</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4892,16 +7492,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920165</v>
+        <v>20330051920371</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4909,16 +7509,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920167</v>
+        <v>20330051920171</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4926,16 +7526,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920371</v>
+        <v>20330051920172</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -4943,16 +7543,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920171</v>
+        <v>20330051920306</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -4960,16 +7560,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920172</v>
+        <v>20330051920179</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -4977,16 +7577,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20330051920306</v>
+        <v>20330051920254</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -4994,16 +7594,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>20330051920179</v>
+        <v>20330051920181</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5011,16 +7611,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>20330051920181</v>
+        <v>20330051920393</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5028,16 +7628,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>20330051920393</v>
+        <v>20330051920184</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5048,13 +7648,13 @@
         <v>20330051920186</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5067,7 +7667,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5100,489 +7700,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>20330051920157</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>20330051920157</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>20330051920158</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>20330051920158</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>20330051920162</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20330051920162</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>20330051920373</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920373</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920183</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920183</v>
-      </c>
-      <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920161</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920174</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920175</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920176</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920177</v>
-      </c>
-      <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920178</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920180</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920254</v>
-      </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920182</v>
-      </c>
-      <c r="B20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920184</v>
-      </c>
-      <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920388</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/2ARHM - Estadisticos 2020.xlsx
+++ b/grupos/2ARHM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="175">
   <si>
     <t>Materia</t>
   </si>
@@ -197,19 +197,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>García Sánchez Magda Bexabe</t>
+  </si>
+  <si>
+    <t>Castro Vasquez Julieta</t>
+  </si>
+  <si>
     <t>Morales Vallejo Jorge Luis</t>
   </si>
   <si>
-    <t>Castro Vasquez Julieta</t>
-  </si>
-  <si>
-    <t>García Sánchez Magda Bexabe</t>
+    <t>Mendoza Velazquez Laura Elena</t>
   </si>
   <si>
     <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
-    <t>Mendoza Velazquez Laura Elena</t>
   </si>
   <si>
     <t>Rosas Aguilar Claudia Leonor</t>
@@ -1026,13 +1026,13 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -1085,13 +1085,13 @@
         <v>8</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>6</v>
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1144,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>6</v>
@@ -1203,13 +1203,13 @@
         <v>10</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>9</v>
@@ -1244,7 +1244,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -1262,13 +1262,13 @@
         <v>8</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L8">
         <v>-1</v>
@@ -1321,13 +1321,13 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L9">
         <v>9</v>
@@ -1380,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L10">
         <v>6</v>
@@ -1421,7 +1421,7 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -1439,13 +1439,13 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -1498,13 +1498,13 @@
         <v>10</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
         <v>9</v>
@@ -1557,13 +1557,13 @@
         <v>5</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L13">
         <v>5</v>
@@ -1616,13 +1616,13 @@
         <v>10</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -1675,13 +1675,13 @@
         <v>10</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L15">
         <v>10</v>
@@ -1734,13 +1734,13 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L16">
         <v>10</v>
@@ -1793,13 +1793,13 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
         <v>8</v>
@@ -1834,10 +1834,10 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -1852,13 +1852,13 @@
         <v>5</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>-1</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>-1</v>
@@ -1893,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -1911,13 +1911,13 @@
         <v>5</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J19">
         <v>-1</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <v>-1</v>
@@ -1952,10 +1952,10 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -1970,13 +1970,13 @@
         <v>5</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J20">
         <v>-1</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>-1</v>
@@ -2029,13 +2029,13 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -2088,13 +2088,13 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>5</v>
@@ -2147,13 +2147,13 @@
         <v>6</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L23">
         <v>6</v>
@@ -2188,7 +2188,7 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -2206,13 +2206,13 @@
         <v>5</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J24">
         <v>-1</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L24">
         <v>-1</v>
@@ -2247,7 +2247,7 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -2265,13 +2265,13 @@
         <v>5</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J25">
         <v>-1</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L25">
         <v>5</v>
@@ -2324,13 +2324,13 @@
         <v>5</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J26">
         <v>-1</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L26">
         <v>-1</v>
@@ -2365,7 +2365,7 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -2383,13 +2383,13 @@
         <v>5</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J27">
         <v>-1</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L27">
         <v>-1</v>
@@ -2442,13 +2442,13 @@
         <v>5</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J28">
         <v>-1</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L28">
         <v>-1</v>
@@ -2501,13 +2501,13 @@
         <v>5</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L29">
         <v>6</v>
@@ -2560,13 +2560,13 @@
         <v>6</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L30">
         <v>-1</v>
@@ -2619,13 +2619,13 @@
         <v>7</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L31">
         <v>7</v>
@@ -2660,7 +2660,7 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -2678,13 +2678,13 @@
         <v>9</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J32">
         <v>-1</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L32">
         <v>7</v>
@@ -2719,7 +2719,7 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D33">
         <v>8</v>
@@ -2737,13 +2737,13 @@
         <v>5</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L33">
         <v>5</v>
@@ -2796,13 +2796,13 @@
         <v>10</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L34">
         <v>9</v>
@@ -2855,13 +2855,13 @@
         <v>8</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L35">
         <v>7</v>
@@ -2914,13 +2914,13 @@
         <v>9</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L36">
         <v>8</v>
@@ -2973,13 +2973,13 @@
         <v>5</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J37">
         <v>-1</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L37">
         <v>-1</v>
@@ -3017,7 +3017,7 @@
         <v>6</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E38">
         <v>6</v>
@@ -3032,13 +3032,13 @@
         <v>5</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L38">
         <v>-1</v>
@@ -3091,13 +3091,13 @@
         <v>5</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L39">
         <v>7</v>
@@ -3150,13 +3150,13 @@
         <v>6</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K40">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L40">
         <v>6</v>
@@ -3215,7 +3215,7 @@
         <v>-1</v>
       </c>
       <c r="K41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L41">
         <v>-1</v>
@@ -3268,13 +3268,13 @@
         <v>5</v>
       </c>
       <c r="I42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L42">
         <v>-1</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -3365,25 +3365,22 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F2">
-        <v>66.67</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>10.26</v>
-      </c>
-      <c r="H2">
-        <v>7.9</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J2">
-        <v>23.08</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3397,30 +3394,30 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>69.23</v>
+        <v>56.41</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>41.03</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="I3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>30.77</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -3429,30 +3426,30 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>87.18000000000001</v>
+        <v>61.54</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>15.38</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J4">
-        <v>12.82</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -3461,30 +3458,30 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="G5">
+        <v>35.9</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>87.18000000000001</v>
-      </c>
-      <c r="G5">
+      <c r="J5">
         <v>0</v>
-      </c>
-      <c r="H5">
-        <v>7.3</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>12.82</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -3493,25 +3490,25 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>92.31</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="G6">
-        <v>7.69</v>
+        <v>23.08</v>
       </c>
       <c r="H6">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>28.21</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3525,19 +3522,19 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>92.31</v>
+        <v>84.62</v>
       </c>
       <c r="G7">
-        <v>7.69</v>
+        <v>15.38</v>
       </c>
       <c r="H7">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3553,7 +3550,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3600,324 +3597,324 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920368</v>
+        <v>20330051920156</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920368</v>
+        <v>20330051920157</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920368</v>
+        <v>20330051920158</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920156</v>
+        <v>20330051920158</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920156</v>
+        <v>20330051920369</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920156</v>
+        <v>20330051920160</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920156</v>
+        <v>20330051920161</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920157</v>
+        <v>20330051920162</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920157</v>
+        <v>20330051920163</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920157</v>
+        <v>20330051920164</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920157</v>
+        <v>20330051920370</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920158</v>
+        <v>20330051920372</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920158</v>
+        <v>20330051920165</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920158</v>
+        <v>20330051920167</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920158</v>
+        <v>20330051920166</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920158</v>
+        <v>20330051920166</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>59</v>
@@ -3925,139 +3922,139 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920369</v>
+        <v>20330051920166</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920369</v>
+        <v>20330051920168</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920369</v>
+        <v>20330051920168</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920369</v>
+        <v>20330051920168</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920160</v>
+        <v>20330051920169</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920160</v>
+        <v>20330051920169</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920160</v>
+        <v>20330051920169</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
         <v>61</v>
@@ -4065,279 +4062,279 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920160</v>
+        <v>20330051920371</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920161</v>
+        <v>20330051920171</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920161</v>
+        <v>20330051920172</v>
       </c>
       <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
         <v>75</v>
       </c>
-      <c r="C28" t="s">
-        <v>110</v>
-      </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920161</v>
+        <v>20330051920173</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920161</v>
+        <v>20330051920173</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920162</v>
+        <v>20330051920173</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920162</v>
+        <v>20330051920174</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920162</v>
+        <v>20330051920174</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920162</v>
+        <v>20330051920175</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920163</v>
+        <v>20330051920175</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920163</v>
+        <v>20330051920175</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920163</v>
+        <v>20330051920176</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920163</v>
+        <v>20330051920176</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920164</v>
+        <v>20330051920176</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
         <v>112</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
         <v>61</v>
@@ -4345,339 +4342,339 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920164</v>
+        <v>20330051920306</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920164</v>
+        <v>20330051920177</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920164</v>
+        <v>20330051920177</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920370</v>
+        <v>20330051920177</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920370</v>
+        <v>20330051920178</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920370</v>
+        <v>20330051920178</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920370</v>
+        <v>20330051920179</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D46" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920372</v>
+        <v>20330051920180</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920372</v>
+        <v>20330051920373</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920372</v>
+        <v>20330051920373</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920372</v>
+        <v>20330051920254</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920165</v>
+        <v>20330051920181</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920165</v>
+        <v>20330051920393</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920165</v>
+        <v>20330051920182</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920165</v>
+        <v>20330051920182</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D54" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920167</v>
+        <v>20330051920182</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920167</v>
+        <v>20330051920183</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F56" t="s">
         <v>61</v>
@@ -4685,139 +4682,139 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920167</v>
+        <v>20330051920183</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920167</v>
+        <v>20330051920184</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>20330051920166</v>
+        <v>20330051920185</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>20330051920166</v>
+        <v>20330051920185</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>20330051920166</v>
+        <v>20330051920185</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>20330051920166</v>
+        <v>20330051920185</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>20330051920166</v>
+        <v>20330051920186</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
         <v>59</v>
@@ -4825,2142 +4822,42 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>20330051920168</v>
+        <v>20330051920388</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>20330051920168</v>
+        <v>20330051920388</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D65" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="E65" t="s">
         <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>20330051920168</v>
-      </c>
-      <c r="B66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C66" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>20330051920168</v>
-      </c>
-      <c r="B67" t="s">
-        <v>83</v>
-      </c>
-      <c r="C67" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" t="s">
-        <v>151</v>
-      </c>
-      <c r="E67" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>20330051920168</v>
-      </c>
-      <c r="B68" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" t="s">
-        <v>118</v>
-      </c>
-      <c r="D68" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>20330051920169</v>
-      </c>
-      <c r="B69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D69" t="s">
-        <v>152</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>20330051920169</v>
-      </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" t="s">
-        <v>119</v>
-      </c>
-      <c r="D70" t="s">
-        <v>152</v>
-      </c>
-      <c r="E70" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>20330051920169</v>
-      </c>
-      <c r="B71" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" t="s">
-        <v>119</v>
-      </c>
-      <c r="D71" t="s">
-        <v>152</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>20330051920169</v>
-      </c>
-      <c r="B72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" t="s">
-        <v>119</v>
-      </c>
-      <c r="D72" t="s">
-        <v>152</v>
-      </c>
-      <c r="E72" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>20330051920169</v>
-      </c>
-      <c r="B73" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" t="s">
-        <v>119</v>
-      </c>
-      <c r="D73" t="s">
-        <v>152</v>
-      </c>
-      <c r="E73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>20330051920371</v>
-      </c>
-      <c r="B74" t="s">
-        <v>85</v>
-      </c>
-      <c r="C74" t="s">
-        <v>120</v>
-      </c>
-      <c r="D74" t="s">
-        <v>153</v>
-      </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>20330051920371</v>
-      </c>
-      <c r="B75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75" t="s">
-        <v>120</v>
-      </c>
-      <c r="D75" t="s">
-        <v>153</v>
-      </c>
-      <c r="E75" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>20330051920371</v>
-      </c>
-      <c r="B76" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" t="s">
-        <v>120</v>
-      </c>
-      <c r="D76" t="s">
-        <v>153</v>
-      </c>
-      <c r="E76" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>20330051920371</v>
-      </c>
-      <c r="B77" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" t="s">
-        <v>120</v>
-      </c>
-      <c r="D77" t="s">
-        <v>153</v>
-      </c>
-      <c r="E77" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>20330051920171</v>
-      </c>
-      <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>121</v>
-      </c>
-      <c r="D78" t="s">
-        <v>154</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>20330051920171</v>
-      </c>
-      <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79" t="s">
-        <v>154</v>
-      </c>
-      <c r="E79" t="s">
-        <v>7</v>
-      </c>
-      <c r="F79" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>20330051920171</v>
-      </c>
-      <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>121</v>
-      </c>
-      <c r="D80" t="s">
-        <v>154</v>
-      </c>
-      <c r="E80" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>20330051920171</v>
-      </c>
-      <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>121</v>
-      </c>
-      <c r="D81" t="s">
-        <v>154</v>
-      </c>
-      <c r="E81" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>20330051920172</v>
-      </c>
-      <c r="B82" t="s">
-        <v>87</v>
-      </c>
-      <c r="C82" t="s">
-        <v>75</v>
-      </c>
-      <c r="D82" t="s">
-        <v>155</v>
-      </c>
-      <c r="E82" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920172</v>
-      </c>
-      <c r="B83" t="s">
-        <v>87</v>
-      </c>
-      <c r="C83" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" t="s">
-        <v>155</v>
-      </c>
-      <c r="E83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920172</v>
-      </c>
-      <c r="B84" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" t="s">
-        <v>75</v>
-      </c>
-      <c r="D84" t="s">
-        <v>155</v>
-      </c>
-      <c r="E84" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920172</v>
-      </c>
-      <c r="B85" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" t="s">
-        <v>75</v>
-      </c>
-      <c r="D85" t="s">
-        <v>155</v>
-      </c>
-      <c r="E85" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920173</v>
-      </c>
-      <c r="B86" t="s">
-        <v>88</v>
-      </c>
-      <c r="C86" t="s">
-        <v>122</v>
-      </c>
-      <c r="D86" t="s">
-        <v>156</v>
-      </c>
-      <c r="E86" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920173</v>
-      </c>
-      <c r="B87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87" t="s">
-        <v>122</v>
-      </c>
-      <c r="D87" t="s">
-        <v>156</v>
-      </c>
-      <c r="E87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920173</v>
-      </c>
-      <c r="B88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C88" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" t="s">
-        <v>156</v>
-      </c>
-      <c r="E88" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920173</v>
-      </c>
-      <c r="B89" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" t="s">
-        <v>156</v>
-      </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
-      <c r="F89" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920173</v>
-      </c>
-      <c r="B90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C90" t="s">
-        <v>122</v>
-      </c>
-      <c r="D90" t="s">
-        <v>156</v>
-      </c>
-      <c r="E90" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920174</v>
-      </c>
-      <c r="B91" t="s">
-        <v>89</v>
-      </c>
-      <c r="C91" t="s">
-        <v>112</v>
-      </c>
-      <c r="D91" t="s">
-        <v>157</v>
-      </c>
-      <c r="E91" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>20330051920174</v>
-      </c>
-      <c r="B92" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" t="s">
-        <v>112</v>
-      </c>
-      <c r="D92" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>20330051920174</v>
-      </c>
-      <c r="B93" t="s">
-        <v>89</v>
-      </c>
-      <c r="C93" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" t="s">
-        <v>157</v>
-      </c>
-      <c r="E93" t="s">
-        <v>5</v>
-      </c>
-      <c r="F93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>20330051920174</v>
-      </c>
-      <c r="B94" t="s">
-        <v>89</v>
-      </c>
-      <c r="C94" t="s">
-        <v>112</v>
-      </c>
-      <c r="D94" t="s">
-        <v>157</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>20330051920175</v>
-      </c>
-      <c r="B95" t="s">
-        <v>90</v>
-      </c>
-      <c r="C95" t="s">
-        <v>123</v>
-      </c>
-      <c r="D95" t="s">
-        <v>158</v>
-      </c>
-      <c r="E95" t="s">
-        <v>8</v>
-      </c>
-      <c r="F95" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>20330051920175</v>
-      </c>
-      <c r="B96" t="s">
-        <v>90</v>
-      </c>
-      <c r="C96" t="s">
-        <v>123</v>
-      </c>
-      <c r="D96" t="s">
-        <v>158</v>
-      </c>
-      <c r="E96" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>20330051920175</v>
-      </c>
-      <c r="B97" t="s">
-        <v>90</v>
-      </c>
-      <c r="C97" t="s">
-        <v>123</v>
-      </c>
-      <c r="D97" t="s">
-        <v>158</v>
-      </c>
-      <c r="E97" t="s">
-        <v>5</v>
-      </c>
-      <c r="F97" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920175</v>
-      </c>
-      <c r="B98" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" t="s">
-        <v>123</v>
-      </c>
-      <c r="D98" t="s">
-        <v>158</v>
-      </c>
-      <c r="E98" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920175</v>
-      </c>
-      <c r="B99" t="s">
-        <v>90</v>
-      </c>
-      <c r="C99" t="s">
-        <v>123</v>
-      </c>
-      <c r="D99" t="s">
-        <v>158</v>
-      </c>
-      <c r="E99" t="s">
-        <v>9</v>
-      </c>
-      <c r="F99" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920176</v>
-      </c>
-      <c r="B100" t="s">
-        <v>91</v>
-      </c>
-      <c r="C100" t="s">
-        <v>112</v>
-      </c>
-      <c r="D100" t="s">
-        <v>159</v>
-      </c>
-      <c r="E100" t="s">
-        <v>8</v>
-      </c>
-      <c r="F100" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920176</v>
-      </c>
-      <c r="B101" t="s">
-        <v>91</v>
-      </c>
-      <c r="C101" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" t="s">
-        <v>159</v>
-      </c>
-      <c r="E101" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920176</v>
-      </c>
-      <c r="B102" t="s">
-        <v>91</v>
-      </c>
-      <c r="C102" t="s">
-        <v>112</v>
-      </c>
-      <c r="D102" t="s">
-        <v>159</v>
-      </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920176</v>
-      </c>
-      <c r="B103" t="s">
-        <v>91</v>
-      </c>
-      <c r="C103" t="s">
-        <v>112</v>
-      </c>
-      <c r="D103" t="s">
-        <v>159</v>
-      </c>
-      <c r="E103" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>20330051920176</v>
-      </c>
-      <c r="B104" t="s">
-        <v>91</v>
-      </c>
-      <c r="C104" t="s">
-        <v>112</v>
-      </c>
-      <c r="D104" t="s">
-        <v>159</v>
-      </c>
-      <c r="E104" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>20330051920306</v>
-      </c>
-      <c r="B105" t="s">
-        <v>92</v>
-      </c>
-      <c r="C105" t="s">
-        <v>79</v>
-      </c>
-      <c r="D105" t="s">
-        <v>160</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>20330051920306</v>
-      </c>
-      <c r="B106" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" t="s">
-        <v>79</v>
-      </c>
-      <c r="D106" t="s">
-        <v>160</v>
-      </c>
-      <c r="E106" t="s">
-        <v>6</v>
-      </c>
-      <c r="F106" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>20330051920306</v>
-      </c>
-      <c r="B107" t="s">
-        <v>92</v>
-      </c>
-      <c r="C107" t="s">
-        <v>79</v>
-      </c>
-      <c r="D107" t="s">
-        <v>160</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>20330051920306</v>
-      </c>
-      <c r="B108" t="s">
-        <v>92</v>
-      </c>
-      <c r="C108" t="s">
-        <v>79</v>
-      </c>
-      <c r="D108" t="s">
-        <v>160</v>
-      </c>
-      <c r="E108" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>20330051920177</v>
-      </c>
-      <c r="B109" t="s">
-        <v>93</v>
-      </c>
-      <c r="C109" t="s">
-        <v>124</v>
-      </c>
-      <c r="D109" t="s">
-        <v>161</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920177</v>
-      </c>
-      <c r="B110" t="s">
-        <v>93</v>
-      </c>
-      <c r="C110" t="s">
-        <v>124</v>
-      </c>
-      <c r="D110" t="s">
-        <v>161</v>
-      </c>
-      <c r="E110" t="s">
-        <v>8</v>
-      </c>
-      <c r="F110" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920177</v>
-      </c>
-      <c r="B111" t="s">
-        <v>93</v>
-      </c>
-      <c r="C111" t="s">
-        <v>124</v>
-      </c>
-      <c r="D111" t="s">
-        <v>161</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920177</v>
-      </c>
-      <c r="B112" t="s">
-        <v>93</v>
-      </c>
-      <c r="C112" t="s">
-        <v>124</v>
-      </c>
-      <c r="D112" t="s">
-        <v>161</v>
-      </c>
-      <c r="E112" t="s">
-        <v>6</v>
-      </c>
-      <c r="F112" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920177</v>
-      </c>
-      <c r="B113" t="s">
-        <v>93</v>
-      </c>
-      <c r="C113" t="s">
-        <v>124</v>
-      </c>
-      <c r="D113" t="s">
-        <v>161</v>
-      </c>
-      <c r="E113" t="s">
-        <v>5</v>
-      </c>
-      <c r="F113" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920178</v>
-      </c>
-      <c r="B114" t="s">
-        <v>94</v>
-      </c>
-      <c r="C114" t="s">
-        <v>125</v>
-      </c>
-      <c r="D114" t="s">
-        <v>162</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920178</v>
-      </c>
-      <c r="B115" t="s">
-        <v>94</v>
-      </c>
-      <c r="C115" t="s">
-        <v>125</v>
-      </c>
-      <c r="D115" t="s">
-        <v>162</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920178</v>
-      </c>
-      <c r="B116" t="s">
-        <v>94</v>
-      </c>
-      <c r="C116" t="s">
-        <v>125</v>
-      </c>
-      <c r="D116" t="s">
-        <v>162</v>
-      </c>
-      <c r="E116" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920178</v>
-      </c>
-      <c r="B117" t="s">
-        <v>94</v>
-      </c>
-      <c r="C117" t="s">
-        <v>125</v>
-      </c>
-      <c r="D117" t="s">
-        <v>162</v>
-      </c>
-      <c r="E117" t="s">
-        <v>5</v>
-      </c>
-      <c r="F117" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920178</v>
-      </c>
-      <c r="B118" t="s">
-        <v>94</v>
-      </c>
-      <c r="C118" t="s">
-        <v>125</v>
-      </c>
-      <c r="D118" t="s">
-        <v>162</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920179</v>
-      </c>
-      <c r="B119" t="s">
-        <v>95</v>
-      </c>
-      <c r="C119" t="s">
-        <v>126</v>
-      </c>
-      <c r="D119" t="s">
-        <v>163</v>
-      </c>
-      <c r="E119" t="s">
-        <v>7</v>
-      </c>
-      <c r="F119" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920179</v>
-      </c>
-      <c r="B120" t="s">
-        <v>95</v>
-      </c>
-      <c r="C120" t="s">
-        <v>126</v>
-      </c>
-      <c r="D120" t="s">
-        <v>163</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920179</v>
-      </c>
-      <c r="B121" t="s">
-        <v>95</v>
-      </c>
-      <c r="C121" t="s">
-        <v>126</v>
-      </c>
-      <c r="D121" t="s">
-        <v>163</v>
-      </c>
-      <c r="E121" t="s">
-        <v>5</v>
-      </c>
-      <c r="F121" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>20330051920179</v>
-      </c>
-      <c r="B122" t="s">
-        <v>95</v>
-      </c>
-      <c r="C122" t="s">
-        <v>126</v>
-      </c>
-      <c r="D122" t="s">
-        <v>163</v>
-      </c>
-      <c r="E122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>20330051920180</v>
-      </c>
-      <c r="B123" t="s">
-        <v>96</v>
-      </c>
-      <c r="C123" t="s">
-        <v>127</v>
-      </c>
-      <c r="D123" t="s">
-        <v>164</v>
-      </c>
-      <c r="E123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>20330051920180</v>
-      </c>
-      <c r="B124" t="s">
-        <v>96</v>
-      </c>
-      <c r="C124" t="s">
-        <v>127</v>
-      </c>
-      <c r="D124" t="s">
-        <v>164</v>
-      </c>
-      <c r="E124" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>20330051920180</v>
-      </c>
-      <c r="B125" t="s">
-        <v>96</v>
-      </c>
-      <c r="C125" t="s">
-        <v>127</v>
-      </c>
-      <c r="D125" t="s">
-        <v>164</v>
-      </c>
-      <c r="E125" t="s">
-        <v>5</v>
-      </c>
-      <c r="F125" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>20330051920180</v>
-      </c>
-      <c r="B126" t="s">
-        <v>96</v>
-      </c>
-      <c r="C126" t="s">
-        <v>127</v>
-      </c>
-      <c r="D126" t="s">
-        <v>164</v>
-      </c>
-      <c r="E126" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>20330051920373</v>
-      </c>
-      <c r="B127" t="s">
-        <v>97</v>
-      </c>
-      <c r="C127" t="s">
-        <v>72</v>
-      </c>
-      <c r="D127" t="s">
-        <v>165</v>
-      </c>
-      <c r="E127" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>20330051920373</v>
-      </c>
-      <c r="B128" t="s">
-        <v>97</v>
-      </c>
-      <c r="C128" t="s">
-        <v>72</v>
-      </c>
-      <c r="D128" t="s">
-        <v>165</v>
-      </c>
-      <c r="E128" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>20330051920373</v>
-      </c>
-      <c r="B129" t="s">
-        <v>97</v>
-      </c>
-      <c r="C129" t="s">
-        <v>72</v>
-      </c>
-      <c r="D129" t="s">
-        <v>165</v>
-      </c>
-      <c r="E129" t="s">
-        <v>6</v>
-      </c>
-      <c r="F129" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>20330051920373</v>
-      </c>
-      <c r="B130" t="s">
-        <v>97</v>
-      </c>
-      <c r="C130" t="s">
-        <v>72</v>
-      </c>
-      <c r="D130" t="s">
-        <v>165</v>
-      </c>
-      <c r="E130" t="s">
-        <v>7</v>
-      </c>
-      <c r="F130" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>20330051920254</v>
-      </c>
-      <c r="B131" t="s">
-        <v>98</v>
-      </c>
-      <c r="C131" t="s">
-        <v>128</v>
-      </c>
-      <c r="D131" t="s">
-        <v>166</v>
-      </c>
-      <c r="E131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>20330051920254</v>
-      </c>
-      <c r="B132" t="s">
-        <v>98</v>
-      </c>
-      <c r="C132" t="s">
-        <v>128</v>
-      </c>
-      <c r="D132" t="s">
-        <v>166</v>
-      </c>
-      <c r="E132" t="s">
-        <v>7</v>
-      </c>
-      <c r="F132" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>20330051920254</v>
-      </c>
-      <c r="B133" t="s">
-        <v>98</v>
-      </c>
-      <c r="C133" t="s">
-        <v>128</v>
-      </c>
-      <c r="D133" t="s">
-        <v>166</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>20330051920254</v>
-      </c>
-      <c r="B134" t="s">
-        <v>98</v>
-      </c>
-      <c r="C134" t="s">
-        <v>128</v>
-      </c>
-      <c r="D134" t="s">
-        <v>166</v>
-      </c>
-      <c r="E134" t="s">
-        <v>5</v>
-      </c>
-      <c r="F134" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>20330051920181</v>
-      </c>
-      <c r="B135" t="s">
-        <v>98</v>
-      </c>
-      <c r="C135" t="s">
-        <v>122</v>
-      </c>
-      <c r="D135" t="s">
-        <v>167</v>
-      </c>
-      <c r="E135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>20330051920181</v>
-      </c>
-      <c r="B136" t="s">
-        <v>98</v>
-      </c>
-      <c r="C136" t="s">
-        <v>122</v>
-      </c>
-      <c r="D136" t="s">
-        <v>167</v>
-      </c>
-      <c r="E136" t="s">
-        <v>7</v>
-      </c>
-      <c r="F136" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>20330051920181</v>
-      </c>
-      <c r="B137" t="s">
-        <v>98</v>
-      </c>
-      <c r="C137" t="s">
-        <v>122</v>
-      </c>
-      <c r="D137" t="s">
-        <v>167</v>
-      </c>
-      <c r="E137" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>20330051920181</v>
-      </c>
-      <c r="B138" t="s">
-        <v>98</v>
-      </c>
-      <c r="C138" t="s">
-        <v>122</v>
-      </c>
-      <c r="D138" t="s">
-        <v>167</v>
-      </c>
-      <c r="E138" t="s">
-        <v>6</v>
-      </c>
-      <c r="F138" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>20330051920393</v>
-      </c>
-      <c r="B139" t="s">
-        <v>99</v>
-      </c>
-      <c r="C139" t="s">
-        <v>129</v>
-      </c>
-      <c r="D139" t="s">
-        <v>168</v>
-      </c>
-      <c r="E139" t="s">
-        <v>5</v>
-      </c>
-      <c r="F139" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>20330051920393</v>
-      </c>
-      <c r="B140" t="s">
-        <v>99</v>
-      </c>
-      <c r="C140" t="s">
-        <v>129</v>
-      </c>
-      <c r="D140" t="s">
-        <v>168</v>
-      </c>
-      <c r="E140" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>20330051920393</v>
-      </c>
-      <c r="B141" t="s">
-        <v>99</v>
-      </c>
-      <c r="C141" t="s">
-        <v>129</v>
-      </c>
-      <c r="D141" t="s">
-        <v>168</v>
-      </c>
-      <c r="E141" t="s">
-        <v>6</v>
-      </c>
-      <c r="F141" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>20330051920393</v>
-      </c>
-      <c r="B142" t="s">
-        <v>99</v>
-      </c>
-      <c r="C142" t="s">
-        <v>129</v>
-      </c>
-      <c r="D142" t="s">
-        <v>168</v>
-      </c>
-      <c r="E142" t="s">
-        <v>7</v>
-      </c>
-      <c r="F142" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>20330051920182</v>
-      </c>
-      <c r="B143" t="s">
-        <v>100</v>
-      </c>
-      <c r="C143" t="s">
-        <v>130</v>
-      </c>
-      <c r="D143" t="s">
-        <v>169</v>
-      </c>
-      <c r="E143" t="s">
-        <v>6</v>
-      </c>
-      <c r="F143" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>20330051920182</v>
-      </c>
-      <c r="B144" t="s">
-        <v>100</v>
-      </c>
-      <c r="C144" t="s">
-        <v>130</v>
-      </c>
-      <c r="D144" t="s">
-        <v>169</v>
-      </c>
-      <c r="E144" t="s">
-        <v>7</v>
-      </c>
-      <c r="F144" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>20330051920182</v>
-      </c>
-      <c r="B145" t="s">
-        <v>100</v>
-      </c>
-      <c r="C145" t="s">
-        <v>130</v>
-      </c>
-      <c r="D145" t="s">
-        <v>169</v>
-      </c>
-      <c r="E145" t="s">
-        <v>8</v>
-      </c>
-      <c r="F145" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>20330051920182</v>
-      </c>
-      <c r="B146" t="s">
-        <v>100</v>
-      </c>
-      <c r="C146" t="s">
-        <v>130</v>
-      </c>
-      <c r="D146" t="s">
-        <v>169</v>
-      </c>
-      <c r="E146" t="s">
-        <v>9</v>
-      </c>
-      <c r="F146" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>20330051920182</v>
-      </c>
-      <c r="B147" t="s">
-        <v>100</v>
-      </c>
-      <c r="C147" t="s">
-        <v>130</v>
-      </c>
-      <c r="D147" t="s">
-        <v>169</v>
-      </c>
-      <c r="E147" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>20330051920183</v>
-      </c>
-      <c r="B148" t="s">
-        <v>101</v>
-      </c>
-      <c r="C148" t="s">
-        <v>131</v>
-      </c>
-      <c r="D148" t="s">
-        <v>170</v>
-      </c>
-      <c r="E148" t="s">
-        <v>6</v>
-      </c>
-      <c r="F148" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>20330051920183</v>
-      </c>
-      <c r="B149" t="s">
-        <v>101</v>
-      </c>
-      <c r="C149" t="s">
-        <v>131</v>
-      </c>
-      <c r="D149" t="s">
-        <v>170</v>
-      </c>
-      <c r="E149" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>20330051920183</v>
-      </c>
-      <c r="B150" t="s">
-        <v>101</v>
-      </c>
-      <c r="C150" t="s">
-        <v>131</v>
-      </c>
-      <c r="D150" t="s">
-        <v>170</v>
-      </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>20330051920183</v>
-      </c>
-      <c r="B151" t="s">
-        <v>101</v>
-      </c>
-      <c r="C151" t="s">
-        <v>131</v>
-      </c>
-      <c r="D151" t="s">
-        <v>170</v>
-      </c>
-      <c r="E151" t="s">
-        <v>7</v>
-      </c>
-      <c r="F151" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>20330051920183</v>
-      </c>
-      <c r="B152" t="s">
-        <v>101</v>
-      </c>
-      <c r="C152" t="s">
-        <v>131</v>
-      </c>
-      <c r="D152" t="s">
-        <v>170</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>20330051920184</v>
-      </c>
-      <c r="B153" t="s">
-        <v>101</v>
-      </c>
-      <c r="C153" t="s">
-        <v>132</v>
-      </c>
-      <c r="D153" t="s">
-        <v>171</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>20330051920184</v>
-      </c>
-      <c r="B154" t="s">
-        <v>101</v>
-      </c>
-      <c r="C154" t="s">
-        <v>132</v>
-      </c>
-      <c r="D154" t="s">
-        <v>171</v>
-      </c>
-      <c r="E154" t="s">
-        <v>6</v>
-      </c>
-      <c r="F154" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>20330051920184</v>
-      </c>
-      <c r="B155" t="s">
-        <v>101</v>
-      </c>
-      <c r="C155" t="s">
-        <v>132</v>
-      </c>
-      <c r="D155" t="s">
-        <v>171</v>
-      </c>
-      <c r="E155" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>20330051920184</v>
-      </c>
-      <c r="B156" t="s">
-        <v>101</v>
-      </c>
-      <c r="C156" t="s">
-        <v>132</v>
-      </c>
-      <c r="D156" t="s">
-        <v>171</v>
-      </c>
-      <c r="E156" t="s">
-        <v>5</v>
-      </c>
-      <c r="F156" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>20330051920185</v>
-      </c>
-      <c r="B157" t="s">
-        <v>102</v>
-      </c>
-      <c r="C157" t="s">
-        <v>133</v>
-      </c>
-      <c r="D157" t="s">
-        <v>172</v>
-      </c>
-      <c r="E157" t="s">
-        <v>7</v>
-      </c>
-      <c r="F157" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>20330051920185</v>
-      </c>
-      <c r="B158" t="s">
-        <v>102</v>
-      </c>
-      <c r="C158" t="s">
-        <v>133</v>
-      </c>
-      <c r="D158" t="s">
-        <v>172</v>
-      </c>
-      <c r="E158" t="s">
-        <v>6</v>
-      </c>
-      <c r="F158" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>20330051920185</v>
-      </c>
-      <c r="B159" t="s">
-        <v>102</v>
-      </c>
-      <c r="C159" t="s">
-        <v>133</v>
-      </c>
-      <c r="D159" t="s">
-        <v>172</v>
-      </c>
-      <c r="E159" t="s">
-        <v>5</v>
-      </c>
-      <c r="F159" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>20330051920185</v>
-      </c>
-      <c r="B160" t="s">
-        <v>102</v>
-      </c>
-      <c r="C160" t="s">
-        <v>133</v>
-      </c>
-      <c r="D160" t="s">
-        <v>172</v>
-      </c>
-      <c r="E160" t="s">
-        <v>8</v>
-      </c>
-      <c r="F160" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>20330051920185</v>
-      </c>
-      <c r="B161" t="s">
-        <v>102</v>
-      </c>
-      <c r="C161" t="s">
-        <v>133</v>
-      </c>
-      <c r="D161" t="s">
-        <v>172</v>
-      </c>
-      <c r="E161" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>20330051920186</v>
-      </c>
-      <c r="B162" t="s">
-        <v>103</v>
-      </c>
-      <c r="C162" t="s">
-        <v>134</v>
-      </c>
-      <c r="D162" t="s">
-        <v>173</v>
-      </c>
-      <c r="E162" t="s">
-        <v>6</v>
-      </c>
-      <c r="F162" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>20330051920186</v>
-      </c>
-      <c r="B163" t="s">
-        <v>103</v>
-      </c>
-      <c r="C163" t="s">
-        <v>134</v>
-      </c>
-      <c r="D163" t="s">
-        <v>173</v>
-      </c>
-      <c r="E163" t="s">
-        <v>7</v>
-      </c>
-      <c r="F163" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>20330051920186</v>
-      </c>
-      <c r="B164" t="s">
-        <v>103</v>
-      </c>
-      <c r="C164" t="s">
-        <v>134</v>
-      </c>
-      <c r="D164" t="s">
-        <v>173</v>
-      </c>
-      <c r="E164" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>20330051920186</v>
-      </c>
-      <c r="B165" t="s">
-        <v>103</v>
-      </c>
-      <c r="C165" t="s">
-        <v>134</v>
-      </c>
-      <c r="D165" t="s">
-        <v>173</v>
-      </c>
-      <c r="E165" t="s">
-        <v>5</v>
-      </c>
-      <c r="F165" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>20330051920388</v>
-      </c>
-      <c r="B166" t="s">
-        <v>104</v>
-      </c>
-      <c r="C166" t="s">
-        <v>135</v>
-      </c>
-      <c r="D166" t="s">
-        <v>174</v>
-      </c>
-      <c r="E166" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>20330051920388</v>
-      </c>
-      <c r="B167" t="s">
-        <v>104</v>
-      </c>
-      <c r="C167" t="s">
-        <v>135</v>
-      </c>
-      <c r="D167" t="s">
-        <v>174</v>
-      </c>
-      <c r="E167" t="s">
-        <v>8</v>
-      </c>
-      <c r="F167" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>20330051920388</v>
-      </c>
-      <c r="B168" t="s">
-        <v>104</v>
-      </c>
-      <c r="C168" t="s">
-        <v>135</v>
-      </c>
-      <c r="D168" t="s">
-        <v>174</v>
-      </c>
-      <c r="E168" t="s">
-        <v>5</v>
-      </c>
-      <c r="F168" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>20330051920388</v>
-      </c>
-      <c r="B169" t="s">
-        <v>104</v>
-      </c>
-      <c r="C169" t="s">
-        <v>135</v>
-      </c>
-      <c r="D169" t="s">
-        <v>174</v>
-      </c>
-      <c r="E169" t="s">
-        <v>7</v>
-      </c>
-      <c r="F169" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>20330051920388</v>
-      </c>
-      <c r="B170" t="s">
-        <v>104</v>
-      </c>
-      <c r="C170" t="s">
-        <v>135</v>
-      </c>
-      <c r="D170" t="s">
-        <v>174</v>
-      </c>
-      <c r="E170" t="s">
-        <v>6</v>
-      </c>
-      <c r="F170" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -6999,16 +4896,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920166</v>
+        <v>20330051920185</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -7016,50 +4913,50 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920169</v>
+        <v>20330051920166</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920185</v>
+        <v>20330051920168</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920168</v>
+        <v>20330051920169</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -7067,203 +4964,203 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920157</v>
+        <v>20330051920173</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920183</v>
+        <v>20330051920175</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920158</v>
+        <v>20330051920176</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920162</v>
+        <v>20330051920177</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920173</v>
+        <v>20330051920182</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920174</v>
+        <v>20330051920158</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920175</v>
+        <v>20330051920174</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920176</v>
+        <v>20330051920178</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920177</v>
+        <v>20330051920373</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920178</v>
+        <v>20330051920183</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920180</v>
+        <v>20330051920388</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920373</v>
+        <v>20330051920368</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -7271,16 +5168,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920182</v>
+        <v>20330051920156</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -7288,16 +5185,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920388</v>
+        <v>20330051920157</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -7305,274 +5202,274 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920368</v>
+        <v>20330051920369</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920156</v>
+        <v>20330051920160</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920369</v>
+        <v>20330051920161</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920160</v>
+        <v>20330051920162</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920161</v>
+        <v>20330051920163</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920163</v>
+        <v>20330051920164</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920164</v>
+        <v>20330051920370</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920370</v>
+        <v>20330051920372</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920372</v>
+        <v>20330051920165</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920165</v>
+        <v>20330051920167</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920167</v>
+        <v>20330051920371</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920371</v>
+        <v>20330051920171</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920171</v>
+        <v>20330051920172</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920172</v>
+        <v>20330051920306</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920306</v>
+        <v>20330051920179</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920179</v>
+        <v>20330051920180</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -7589,7 +5486,7 @@
         <v>166</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -7606,7 +5503,7 @@
         <v>167</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -7623,7 +5520,7 @@
         <v>168</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -7640,7 +5537,7 @@
         <v>171</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7657,7 +5554,7 @@
         <v>173</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7667,7 +5564,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7697,7 +5594,582 @@
         <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920306</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920306</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920180</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920184</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920368</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920156</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920369</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920161</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920163</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920164</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>20330051920370</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>20330051920372</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>20330051920165</v>
+      </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20330051920167</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>20330051920371</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>20330051920171</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20330051920172</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>20330051920179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>20330051920254</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>20330051920181</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>20330051920393</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>20330051920186</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/2ARHM - Estadisticos 2020.xlsx
+++ b/grupos/2ARHM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="175">
   <si>
     <t>Materia</t>
   </si>
@@ -197,21 +197,21 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Castro Vasquez Julieta</t>
+  </si>
+  <si>
+    <t>Morales Vallejo Jorge Luis</t>
+  </si>
+  <si>
+    <t>Mendoza Velazquez Laura Elena</t>
+  </si>
+  <si>
+    <t>González Altamirano Victorino Juventino</t>
+  </si>
+  <si>
     <t>García Sánchez Magda Bexabe</t>
   </si>
   <si>
-    <t>Castro Vasquez Julieta</t>
-  </si>
-  <si>
-    <t>Morales Vallejo Jorge Luis</t>
-  </si>
-  <si>
-    <t>Mendoza Velazquez Laura Elena</t>
-  </si>
-  <si>
-    <t>González Altamirano Victorino Juventino</t>
-  </si>
-  <si>
     <t>Rosas Aguilar Claudia Leonor</t>
   </si>
   <si>
@@ -227,18 +227,159 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ARROYO</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>HUESCA</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>NAMORADO</t>
+  </si>
+  <si>
+    <t>NEPOMUCENO</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
+    <t>QUIRIZ</t>
+  </si>
+  <si>
+    <t>RICO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>ZUÑIGA</t>
+  </si>
+  <si>
+    <t>NOMTALVO</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>JERONIMO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>ALAMILLO</t>
+  </si>
+  <si>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>MELO</t>
+  </si>
+  <si>
+    <t>TEPEPA</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>VICTOR HUGO</t>
+  </si>
+  <si>
+    <t>DINA BERENICE</t>
+  </si>
+  <si>
+    <t>ANGELES NAHOMI</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>ALDAIR OMAR</t>
+  </si>
+  <si>
+    <t>BLANCA EULARIA</t>
+  </si>
+  <si>
+    <t>VANNIA GISELLE</t>
+  </si>
+  <si>
+    <t>LUZ ESTRELLA</t>
+  </si>
+  <si>
+    <t>ABIGAIL</t>
+  </si>
+  <si>
+    <t>PAOLA GONETSY</t>
+  </si>
+  <si>
+    <t>IDETH JOSELYN</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>EDGAR RAMSES</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>ELELYN IVETH</t>
+  </si>
+  <si>
+    <t>PAOLA JAZMIN</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
     <t>ANDRADE</t>
   </si>
   <si>
     <t>ANTONIO</t>
   </si>
   <si>
-    <t>ARROYO</t>
-  </si>
-  <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
     <t>BASILIO</t>
   </si>
   <si>
@@ -248,9 +389,6 @@
     <t>CANSECO</t>
   </si>
   <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
     <t>CRUZ</t>
   </si>
   <si>
@@ -266,15 +404,6 @@
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>HUESCA</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
     <t>LORENZO</t>
   </si>
   <si>
@@ -284,66 +413,27 @@
     <t>MATA</t>
   </si>
   <si>
-    <t>MENDEZ</t>
-  </si>
-  <si>
-    <t>NAMORADO</t>
-  </si>
-  <si>
-    <t>NEPOMUCENO</t>
-  </si>
-  <si>
-    <t>OJEDA</t>
-  </si>
-  <si>
     <t>PARRA</t>
   </si>
   <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>QUIRIZ</t>
-  </si>
-  <si>
     <t>REYES</t>
   </si>
   <si>
     <t>RIVERA</t>
   </si>
   <si>
-    <t>RICO</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
     <t>SANDRIA</t>
   </si>
   <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
     <t>XOCUA</t>
   </si>
   <si>
-    <t>ZUÑIGA</t>
-  </si>
-  <si>
     <t>VALLEJO</t>
   </si>
   <si>
-    <t>NOMTALVO</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
     <t>ESTEVEZ</t>
   </si>
   <si>
@@ -353,12 +443,6 @@
     <t>LEAL</t>
   </si>
   <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
     <t>MENDOZA</t>
   </si>
   <si>
@@ -371,33 +455,12 @@
     <t>ALONSO</t>
   </si>
   <si>
-    <t>JERONIMO</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
     <t>DOMINGUEZ</t>
   </si>
   <si>
     <t>MIXCOA</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>ALAMILLO</t>
-  </si>
-  <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
     <t>SARMIENTO</t>
   </si>
   <si>
@@ -410,36 +473,18 @@
     <t>TRUJILLO</t>
   </si>
   <si>
-    <t>MELO</t>
-  </si>
-  <si>
-    <t>TEPEPA</t>
-  </si>
-  <si>
     <t>VICTORIANO</t>
   </si>
   <si>
-    <t>YOPIHUA</t>
-  </si>
-  <si>
     <t>ZEPAHUA</t>
   </si>
   <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
     <t>PATRICIA</t>
   </si>
   <si>
     <t>LUIS YAEL</t>
   </si>
   <si>
-    <t>VICTOR HUGO</t>
-  </si>
-  <si>
-    <t>DINA BERENICE</t>
-  </si>
-  <si>
     <t>VANESA</t>
   </si>
   <si>
@@ -449,9 +494,6 @@
     <t>ANGELA</t>
   </si>
   <si>
-    <t>ANGELES NAHOMI</t>
-  </si>
-  <si>
     <t>ADRIANA ARELY</t>
   </si>
   <si>
@@ -470,15 +512,6 @@
     <t>LIZBET</t>
   </si>
   <si>
-    <t>XIMENA</t>
-  </si>
-  <si>
-    <t>ALDAIR OMAR</t>
-  </si>
-  <si>
-    <t>BLANCA EULARIA</t>
-  </si>
-  <si>
     <t>GUADALUPE</t>
   </si>
   <si>
@@ -488,36 +521,15 @@
     <t>CRISTIAN ARTURO</t>
   </si>
   <si>
-    <t>VANNIA GISELLE</t>
-  </si>
-  <si>
-    <t>LUZ ESTRELLA</t>
-  </si>
-  <si>
-    <t>ABIGAIL</t>
-  </si>
-  <si>
-    <t>PAOLA GONETSY</t>
-  </si>
-  <si>
     <t>SUEMI</t>
   </si>
   <si>
-    <t>IDETH JOSELYN</t>
-  </si>
-  <si>
-    <t>MONICA</t>
-  </si>
-  <si>
     <t>ESTHER ARISBETH</t>
   </si>
   <si>
     <t>JAROMI YAJAIRA</t>
   </si>
   <si>
-    <t>EDGAR RAMSES</t>
-  </si>
-  <si>
     <t>BERENICE</t>
   </si>
   <si>
@@ -527,22 +539,10 @@
     <t>MONSERRATH YARETZY</t>
   </si>
   <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>ELELYN IVETH</t>
-  </si>
-  <si>
     <t>MARIAN</t>
   </si>
   <si>
-    <t>PAOLA JAZMIN</t>
-  </si>
-  <si>
     <t>AYARI</t>
-  </si>
-  <si>
-    <t>DANIELA</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1038,7 @@
         <v>10</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -1097,7 +1097,7 @@
         <v>6</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -1215,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1333,7 +1333,7 @@
         <v>9</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1392,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1510,7 +1510,7 @@
         <v>9</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1569,7 +1569,7 @@
         <v>5</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1628,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1687,7 +1687,7 @@
         <v>10</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1746,7 +1746,7 @@
         <v>10</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1805,7 +1805,7 @@
         <v>8</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -2041,7 +2041,7 @@
         <v>10</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2100,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2159,7 +2159,7 @@
         <v>6</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2218,7 +2218,7 @@
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2277,7 +2277,7 @@
         <v>5</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2454,7 +2454,7 @@
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2513,7 +2513,7 @@
         <v>6</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2572,7 +2572,7 @@
         <v>-1</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2631,7 +2631,7 @@
         <v>7</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2690,7 +2690,7 @@
         <v>7</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N32">
         <v>-1</v>
@@ -2749,7 +2749,7 @@
         <v>5</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -2808,7 +2808,7 @@
         <v>9</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N34">
         <v>-1</v>
@@ -2867,7 +2867,7 @@
         <v>7</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -2926,7 +2926,7 @@
         <v>8</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N36">
         <v>-1</v>
@@ -2985,7 +2985,7 @@
         <v>-1</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N37">
         <v>-1</v>
@@ -3044,7 +3044,7 @@
         <v>-1</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N38">
         <v>-1</v>
@@ -3103,7 +3103,7 @@
         <v>7</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N39">
         <v>-1</v>
@@ -3162,7 +3162,7 @@
         <v>6</v>
       </c>
       <c r="M40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N40">
         <v>-1</v>
@@ -3191,7 +3191,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>-1</v>
@@ -3209,7 +3209,7 @@
         <v>5</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J41">
         <v>-1</v>
@@ -3280,7 +3280,7 @@
         <v>-1</v>
       </c>
       <c r="M42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N42">
         <v>-1</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -3365,27 +3365,30 @@
         <v>39</v>
       </c>
       <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>56.41</v>
+      </c>
+      <c r="G2">
+        <v>43.59</v>
+      </c>
+      <c r="H2">
+        <v>6.5</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>34</v>
-      </c>
-      <c r="F2">
+      <c r="J2">
         <v>0</v>
-      </c>
-      <c r="G2">
-        <v>87.18000000000001</v>
-      </c>
-      <c r="I2">
-        <v>39</v>
-      </c>
-      <c r="J2">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -3394,30 +3397,30 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>56.41</v>
+        <v>61.54</v>
       </c>
       <c r="G3">
-        <v>41.03</v>
+        <v>15.38</v>
       </c>
       <c r="H3">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>2.56</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -3426,30 +3429,30 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>61.54</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="G4">
-        <v>15.38</v>
+        <v>35.9</v>
       </c>
       <c r="H4">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -3458,30 +3461,30 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>64.09999999999999</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="G5">
-        <v>35.9</v>
+        <v>23.08</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>28.21</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>63</v>
@@ -3490,25 +3493,25 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>71.79000000000001</v>
+        <v>76.92</v>
       </c>
       <c r="G6">
+        <v>10.26</v>
+      </c>
+      <c r="H6">
+        <v>7.6</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
         <v>23.08</v>
-      </c>
-      <c r="H6">
-        <v>7.1</v>
-      </c>
-      <c r="I6">
-        <v>11</v>
-      </c>
-      <c r="J6">
-        <v>28.21</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3550,7 +3553,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3582,379 +3585,379 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920368</v>
+        <v>20330051920157</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920156</v>
+        <v>20330051920158</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920157</v>
+        <v>20330051920158</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920158</v>
+        <v>20330051920162</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920158</v>
+        <v>20330051920166</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920369</v>
+        <v>20330051920166</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920160</v>
+        <v>20330051920166</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920161</v>
+        <v>20330051920168</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920162</v>
+        <v>20330051920168</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920163</v>
+        <v>20330051920168</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920164</v>
+        <v>20330051920169</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920370</v>
+        <v>20330051920169</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920372</v>
+        <v>20330051920169</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920165</v>
+        <v>20330051920173</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920167</v>
+        <v>20330051920173</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920166</v>
+        <v>20330051920174</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920166</v>
+        <v>20330051920175</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920166</v>
+        <v>20330051920175</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920168</v>
+        <v>20330051920175</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>63</v>
@@ -3962,239 +3965,239 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920168</v>
+        <v>20330051920176</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920168</v>
+        <v>20330051920176</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920169</v>
+        <v>20330051920176</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920169</v>
+        <v>20330051920177</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920169</v>
+        <v>20330051920177</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920371</v>
+        <v>20330051920178</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920171</v>
+        <v>20330051920373</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920172</v>
+        <v>20330051920182</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920173</v>
+        <v>20330051920182</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920173</v>
+        <v>20330051920183</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920173</v>
+        <v>20330051920185</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920174</v>
+        <v>20330051920185</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
         <v>63</v>
@@ -4202,662 +4205,42 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920174</v>
+        <v>20330051920185</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920175</v>
+        <v>20330051920388</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>20330051920175</v>
-      </c>
-      <c r="B35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>20330051920175</v>
-      </c>
-      <c r="B36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>20330051920176</v>
-      </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>20330051920176</v>
-      </c>
-      <c r="B38" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>20330051920176</v>
-      </c>
-      <c r="B39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" t="s">
-        <v>159</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>20330051920306</v>
-      </c>
-      <c r="B40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>20330051920177</v>
-      </c>
-      <c r="B41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>20330051920177</v>
-      </c>
-      <c r="B42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" t="s">
-        <v>161</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>20330051920177</v>
-      </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>20330051920178</v>
-      </c>
-      <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>20330051920178</v>
-      </c>
-      <c r="B45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" t="s">
-        <v>162</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>20330051920179</v>
-      </c>
-      <c r="B46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>20330051920180</v>
-      </c>
-      <c r="B47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>127</v>
-      </c>
-      <c r="D47" t="s">
-        <v>164</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>20330051920373</v>
-      </c>
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" t="s">
-        <v>165</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>20330051920373</v>
-      </c>
-      <c r="B49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" t="s">
-        <v>165</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>20330051920254</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" t="s">
-        <v>166</v>
-      </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>20330051920181</v>
-      </c>
-      <c r="B51" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D51" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>20330051920393</v>
-      </c>
-      <c r="B52" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" t="s">
-        <v>168</v>
-      </c>
-      <c r="E52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>20330051920182</v>
-      </c>
-      <c r="B53" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" t="s">
-        <v>130</v>
-      </c>
-      <c r="D53" t="s">
-        <v>169</v>
-      </c>
-      <c r="E53" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>20330051920182</v>
-      </c>
-      <c r="B54" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54" t="s">
-        <v>169</v>
-      </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>20330051920182</v>
-      </c>
-      <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" t="s">
-        <v>130</v>
-      </c>
-      <c r="D55" t="s">
-        <v>169</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>20330051920183</v>
-      </c>
-      <c r="B56" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>20330051920183</v>
-      </c>
-      <c r="B57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" t="s">
-        <v>170</v>
-      </c>
-      <c r="E57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>20330051920184</v>
-      </c>
-      <c r="B58" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" t="s">
-        <v>132</v>
-      </c>
-      <c r="D58" t="s">
-        <v>171</v>
-      </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>20330051920185</v>
-      </c>
-      <c r="B59" t="s">
-        <v>102</v>
-      </c>
-      <c r="C59" t="s">
-        <v>133</v>
-      </c>
-      <c r="D59" t="s">
-        <v>172</v>
-      </c>
-      <c r="E59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>20330051920185</v>
-      </c>
-      <c r="B60" t="s">
-        <v>102</v>
-      </c>
-      <c r="C60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" t="s">
-        <v>172</v>
-      </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>20330051920185</v>
-      </c>
-      <c r="B61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" t="s">
-        <v>133</v>
-      </c>
-      <c r="D61" t="s">
-        <v>172</v>
-      </c>
-      <c r="E61" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>20330051920185</v>
-      </c>
-      <c r="B62" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" t="s">
-        <v>133</v>
-      </c>
-      <c r="D62" t="s">
-        <v>172</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>20330051920186</v>
-      </c>
-      <c r="B63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" t="s">
-        <v>134</v>
-      </c>
-      <c r="D63" t="s">
-        <v>173</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>20330051920388</v>
-      </c>
-      <c r="B64" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" t="s">
-        <v>174</v>
-      </c>
-      <c r="E64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>20330051920388</v>
-      </c>
-      <c r="B65" t="s">
-        <v>104</v>
-      </c>
-      <c r="C65" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" t="s">
-        <v>174</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4896,33 +4279,33 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920185</v>
+        <v>20330051920166</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920166</v>
+        <v>20330051920168</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -4930,16 +4313,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920168</v>
+        <v>20330051920169</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -4947,16 +4330,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920169</v>
+        <v>20330051920175</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -4964,16 +4347,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920173</v>
+        <v>20330051920176</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -4981,16 +4364,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920175</v>
+        <v>20330051920185</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -4998,67 +4381,67 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920176</v>
+        <v>20330051920158</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920177</v>
+        <v>20330051920173</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920182</v>
+        <v>20330051920177</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920158</v>
+        <v>20330051920182</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -5066,101 +4449,101 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920174</v>
+        <v>20330051920157</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920178</v>
+        <v>20330051920162</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920373</v>
+        <v>20330051920174</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920183</v>
+        <v>20330051920178</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920388</v>
+        <v>20330051920373</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920368</v>
+        <v>20330051920183</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5168,16 +4551,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920156</v>
+        <v>20330051920388</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5185,87 +4568,87 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920157</v>
+        <v>20330051920368</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920369</v>
+        <v>20330051920156</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920160</v>
+        <v>20330051920369</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920161</v>
+        <v>20330051920160</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920162</v>
+        <v>20330051920161</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5273,16 +4656,16 @@
         <v>20330051920163</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5290,16 +4673,16 @@
         <v>20330051920164</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5307,16 +4690,16 @@
         <v>20330051920370</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5324,16 +4707,16 @@
         <v>20330051920372</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -5341,16 +4724,16 @@
         <v>20330051920165</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5358,16 +4741,16 @@
         <v>20330051920167</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5375,16 +4758,16 @@
         <v>20330051920371</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5392,16 +4775,16 @@
         <v>20330051920171</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -5409,16 +4792,16 @@
         <v>20330051920172</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5426,16 +4809,16 @@
         <v>20330051920306</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -5443,16 +4826,16 @@
         <v>20330051920179</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -5460,16 +4843,16 @@
         <v>20330051920180</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5477,16 +4860,16 @@
         <v>20330051920254</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="D36" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -5494,16 +4877,16 @@
         <v>20330051920181</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -5511,16 +4894,16 @@
         <v>20330051920393</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -5528,16 +4911,16 @@
         <v>20330051920184</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -5545,16 +4928,16 @@
         <v>20330051920186</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="D40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5564,7 +4947,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5599,22 +4982,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920306</v>
+        <v>20330051920178</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -5622,22 +5005,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>20330051920306</v>
+        <v>20330051920178</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -5645,22 +5028,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920180</v>
+        <v>20330051920373</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -5668,22 +5051,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>20330051920180</v>
+        <v>20330051920373</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -5691,22 +5074,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920184</v>
+        <v>20330051920306</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -5714,462 +5097,48 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920184</v>
+        <v>20330051920180</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920368</v>
+        <v>20330051920184</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>20330051920156</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>20330051920369</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920160</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920161</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920163</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920164</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>20330051920370</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>20330051920372</v>
-      </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>20330051920165</v>
-      </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>20330051920167</v>
-      </c>
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" t="s">
-        <v>149</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>20330051920371</v>
-      </c>
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>20330051920171</v>
-      </c>
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>20330051920172</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>20330051920179</v>
-      </c>
-      <c r="B22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>20330051920254</v>
-      </c>
-      <c r="B23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" t="s">
-        <v>166</v>
-      </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>20330051920181</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>20330051920393</v>
-      </c>
-      <c r="B25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" t="s">
-        <v>129</v>
-      </c>
-      <c r="D25" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>20330051920186</v>
-      </c>
-      <c r="B26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
